--- a/EXAMPLE_CertificateIndex.xlsx
+++ b/EXAMPLE_CertificateIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Engineering\Eli Saunders\Python\Python Certs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABEFF44-AEA4-4F06-88C8-340D504F5B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20C8DBE-B50F-4F79-9D95-9CF740ED085D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-405" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
   <si>
     <t>Project directory</t>
   </si>
@@ -358,7 +358,178 @@
     <t>'tocs':str(tocs)</t>
   </si>
   <si>
-    <t>F:\Materials</t>
+    <t>C:\Users\design01\Desktop</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>FLUIDHEAD ASSEMBLY</t>
+  </si>
+  <si>
+    <t>FH15156</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>FHD15215</t>
+  </si>
+  <si>
+    <t>VNT15233</t>
+  </si>
+  <si>
+    <t>PLG15234</t>
+  </si>
+  <si>
+    <t>VVD15235</t>
+  </si>
+  <si>
+    <t>VGD15236</t>
+  </si>
+  <si>
+    <t>VST15241</t>
+  </si>
+  <si>
+    <t>VVI15242</t>
+  </si>
+  <si>
+    <t>PLG15243</t>
+  </si>
+  <si>
+    <t>VSR15244</t>
+  </si>
+  <si>
+    <t>PLG15245</t>
+  </si>
+  <si>
+    <t>CW6MC</t>
+  </si>
+  <si>
+    <t>P0813</t>
+  </si>
+  <si>
+    <t>M2027</t>
+  </si>
+  <si>
+    <t>P0812</t>
+  </si>
+  <si>
+    <t>M2025</t>
+  </si>
+  <si>
+    <t>N06625</t>
+  </si>
+  <si>
+    <t>WLH8282</t>
+  </si>
+  <si>
+    <t>403805v1</t>
+  </si>
+  <si>
+    <t>169050/0</t>
+  </si>
+  <si>
+    <t>177564/0</t>
+  </si>
+  <si>
+    <t>017323B</t>
+  </si>
+  <si>
+    <t>017324B</t>
+  </si>
+  <si>
+    <t>C6132</t>
+  </si>
+  <si>
+    <t>017338B</t>
+  </si>
+  <si>
+    <t>017340B</t>
+  </si>
+  <si>
+    <t>FLUIDHEAD RAM54 HCH</t>
+  </si>
+  <si>
+    <t>FLUIDHEAD RAM54  HCH</t>
+  </si>
+  <si>
+    <t>VALVE NUT RAM54</t>
+  </si>
+  <si>
+    <t>PLUG TOP RAM54/HCH</t>
+  </si>
+  <si>
+    <t>VALVE DISCHARGE RAM54/HCH</t>
+  </si>
+  <si>
+    <t>VALVE GUIDE DICHARGE</t>
+  </si>
+  <si>
+    <t>VALVE SEAT RAM54/HCH</t>
+  </si>
+  <si>
+    <t>VALVE INLET RAM54/HCH</t>
+  </si>
+  <si>
+    <t>PLUG 1.1/4" 8SPP</t>
+  </si>
+  <si>
+    <t>VALVE SEAT RING</t>
+  </si>
+  <si>
+    <t>SH15821</t>
+  </si>
+  <si>
+    <t>SEAL HOUSING</t>
+  </si>
+  <si>
+    <t>SLH15822</t>
+  </si>
+  <si>
+    <t>NPA3418.4</t>
+  </si>
+  <si>
+    <t>RAM15823</t>
+  </si>
+  <si>
+    <t>TIR15824</t>
+  </si>
+  <si>
+    <t>SEAL HOUSING RAM54R055</t>
+  </si>
+  <si>
+    <t>NUT PACKING ADJUSTER-55MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM54R055 HCH </t>
+  </si>
+  <si>
+    <t>THRUST RING RAM54R055</t>
+  </si>
+  <si>
+    <t>169371/0</t>
+  </si>
+  <si>
+    <t>017341B</t>
+  </si>
+  <si>
+    <t>CA104/CW307G</t>
+  </si>
+  <si>
+    <t>EA5805</t>
+  </si>
+  <si>
+    <t>017343B</t>
+  </si>
+  <si>
+    <t>173503/0</t>
+  </si>
+  <si>
+    <t>017345B</t>
   </si>
 </sst>
 </file>
@@ -720,8 +891,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,12 +970,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,24 +1271,24 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="16" style="32" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
@@ -1120,30 +1301,30 @@
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="26"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="27"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -1155,13 +1336,13 @@
       <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="27"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -1173,13 +1354,13 @@
       <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -1188,16 +1369,16 @@
       <c r="B5" s="19">
         <v>12</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="28"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
@@ -1207,16 +1388,16 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>39</v>
@@ -1224,19 +1405,19 @@
       <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="42" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -1244,831 +1425,1102 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="30">
+      <c r="A8" s="33"/>
+      <c r="B8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="47">
+        <v>319939</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="35">
+        <v>26308</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="50">
+        <v>26308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="47">
+        <v>326413</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="35">
+        <v>26308</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="50">
+        <v>26308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="47">
+        <v>326940</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="35">
+        <v>26485</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="50">
+        <v>26485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="47">
+        <v>1938</v>
+      </c>
+      <c r="H12" s="35">
+        <v>26485</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="50">
+        <v>26485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="47">
+        <v>319939</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="35">
+        <v>26308</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="50">
+        <v>26308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="47">
+        <v>326413</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="35">
+        <v>26308</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="50">
+        <v>26308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="47">
+        <v>326940</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="35">
+        <v>26485</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="50">
+        <v>26485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="47">
+        <v>1938</v>
+      </c>
+      <c r="H17" s="35">
+        <v>26485</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="50">
+        <v>26485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="47">
+        <v>319939</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="35">
+        <v>26308</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="50">
+        <v>26308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="47">
+        <v>326413</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="35">
+        <v>26308</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="50">
+        <v>26308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47">
+        <v>326940</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="35">
+        <v>26485</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="50">
+        <v>26485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="47">
+        <v>1938</v>
+      </c>
+      <c r="H21" s="35">
+        <v>26485</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="50">
+        <v>26485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="30">
+      <c r="B23" s="28"/>
+      <c r="C23" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="35">
+        <v>26534</v>
+      </c>
+      <c r="I23" s="43">
+        <v>174738</v>
+      </c>
+      <c r="J23" s="50">
+        <v>26534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>1</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="36">
+        <v>26534</v>
+      </c>
+      <c r="I24" s="44">
+        <v>174738</v>
+      </c>
+      <c r="J24" s="54">
+        <v>26534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
         <v>2</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="49">
-        <v>319939</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="37">
-        <v>26308</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="53">
-        <v>26308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="30">
+      <c r="B25" s="28"/>
+      <c r="C25" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="35">
+        <v>26242</v>
+      </c>
+      <c r="I25" s="43">
+        <v>173208</v>
+      </c>
+      <c r="J25" s="50">
+        <v>26242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>3</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="47">
+        <v>361187</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="35">
+        <v>26242</v>
+      </c>
+      <c r="I26" s="43">
+        <v>173228</v>
+      </c>
+      <c r="J26" s="50">
+        <v>26242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>6</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="47">
+        <v>319615</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="35">
+        <v>26242</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="50">
+        <v>26242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>7</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="53">
+        <v>606389</v>
+      </c>
+      <c r="G28" s="53">
+        <v>1118501</v>
+      </c>
+      <c r="H28" s="36">
+        <v>26242</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="54">
+        <v>26242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>9</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="47">
+        <v>3300</v>
+      </c>
+      <c r="H29" s="35">
+        <v>26385</v>
+      </c>
+      <c r="I29" s="43">
+        <v>173308</v>
+      </c>
+      <c r="J29" s="50">
+        <v>26385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <v>11</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="47">
+        <v>319615</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="35">
+        <v>26242</v>
+      </c>
+      <c r="I30" s="43">
+        <v>173318</v>
+      </c>
+      <c r="J30" s="50">
+        <v>26242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>18</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="53">
+        <v>351483</v>
+      </c>
+      <c r="G31" s="53">
+        <v>130991</v>
+      </c>
+      <c r="H31" s="36">
+        <v>26242</v>
+      </c>
+      <c r="I31" s="44">
+        <v>173378</v>
+      </c>
+      <c r="J31" s="54">
+        <v>26242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <v>20</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="47">
+        <v>606389</v>
+      </c>
+      <c r="G32" s="47">
+        <v>1118501</v>
+      </c>
+      <c r="H32" s="35">
+        <v>26242</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="50">
+        <v>26242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>23</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="47">
+        <v>361187</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="35">
+        <v>26242</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" s="50">
+        <v>26242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>1</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="53">
+        <v>361508</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="37">
+        <v>26208</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="J35" s="54">
+        <v>26208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
         <v>2</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="49">
-        <v>326413</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="37">
-        <v>26308</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="53">
-        <v>26308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="30">
-        <v>2</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="49">
-        <v>326940</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="37">
-        <v>26485</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="53">
-        <v>26485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="30">
-        <v>2</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="49">
-        <v>1938</v>
-      </c>
-      <c r="H12" s="37">
-        <v>26485</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="53">
-        <v>26485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="30">
-        <v>1</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="30">
-        <v>2</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="49">
-        <v>319939</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="37">
-        <v>26308</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="53">
-        <v>26308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="30">
-        <v>2</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="49">
-        <v>326413</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="37">
-        <v>26308</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="53">
-        <v>26308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="30">
-        <v>2</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="49">
-        <v>326940</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="37">
-        <v>26485</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="53">
-        <v>26485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="30">
-        <v>2</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="49">
-        <v>1938</v>
-      </c>
-      <c r="H17" s="37">
-        <v>26485</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="53">
-        <v>26485</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="30">
-        <v>2</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="49">
-        <v>319939</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="37">
-        <v>26308</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="53">
-        <v>26308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="30">
-        <v>2</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="49">
-        <v>326413</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="37">
-        <v>26308</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="53">
-        <v>26308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="30">
-        <v>2</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="49">
-        <v>326940</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="37">
-        <v>26485</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="53">
-        <v>26485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="30">
-        <v>2</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="49">
-        <v>1938</v>
-      </c>
-      <c r="H21" s="37">
-        <v>26485</v>
-      </c>
-      <c r="I21" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="53">
-        <v>26485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="54"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="54"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="54"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="54"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="54"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="46"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="54"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="54"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="46"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="54"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="54"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="54"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="47">
+        <v>298710</v>
+      </c>
+      <c r="H36" s="35">
+        <v>26241</v>
+      </c>
+      <c r="I36" s="43">
+        <v>173428</v>
+      </c>
+      <c r="J36" s="50">
+        <v>26241</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="54"/>
+      <c r="A37" s="33">
+        <v>3</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="47">
+        <v>44789</v>
+      </c>
+      <c r="G37" s="47">
+        <v>250235</v>
+      </c>
+      <c r="H37" s="35">
+        <v>26387</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="50">
+        <v>26387</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="46"/>
+      <c r="A38" s="34">
+        <v>4</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="53">
+        <v>342920</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="36">
+        <v>26197</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="54">
+        <v>26197</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="47"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="45"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="46"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="46"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="46"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="46"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="46"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="44"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="46"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="44"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="46"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="46"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="46"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="44"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="46"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="46"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="44"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="46"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="44"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="46"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="44"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="46"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="44"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="46"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="44"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="46"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="44"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="46"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="44"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="46"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="44"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="46"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="44"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="46"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="44"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="46"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2087,402 +2539,402 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="str">
+      <c r="A1" s="48" t="str">
         <f>_xlfn.CONCAT("'",E1,"'")</f>
         <v>'seq'</v>
       </c>
-      <c r="B1" s="51" t="str">
+      <c r="B1" s="49" t="str">
         <f>_xlfn.CONCAT(A1,":","str(",E1,")")</f>
         <v>'seq':str(seq)</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="str">
+      <c r="A2" s="48" t="str">
         <f t="shared" ref="A2:A12" si="0">_xlfn.CONCAT("'",E2,"'")</f>
         <v>'lev'</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="49" t="str">
         <f t="shared" ref="B2:B12" si="1">_xlfn.CONCAT(A2,":","str(",E2,")")</f>
         <v>'lev':str(lev)</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="str">
+      <c r="A3" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'comp'</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'comp':str(comp)</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="str">
+      <c r="A4" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'desc'</v>
       </c>
-      <c r="B4" s="51" t="str">
+      <c r="B4" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'desc':str(desc)</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="str">
+      <c r="A5" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'mat'</v>
       </c>
-      <c r="B5" s="51" t="str">
+      <c r="B5" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'mat':str(mat)</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="str">
+      <c r="A6" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'heat'</v>
       </c>
-      <c r="B6" s="51" t="str">
+      <c r="B6" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'heat':str(heat)</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="str">
+      <c r="A7" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'cert'</v>
       </c>
-      <c r="B7" s="51" t="str">
+      <c r="B7" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'cert':str(cert)</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'gin'</v>
       </c>
-      <c r="B8" s="51" t="str">
+      <c r="B8" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'gin':str(gin)</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="str">
+      <c r="A9" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'build'</v>
       </c>
-      <c r="B9" s="51" t="str">
+      <c r="B9" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'build':str(build)</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'fil'</v>
       </c>
-      <c r="B10" s="51" t="str">
+      <c r="B10" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'fil':str(fil)</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="str">
+      <c r="A11" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'titl'</v>
       </c>
-      <c r="B11" s="51" t="str">
+      <c r="B11" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'titl':str(titl)</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="str">
+      <c r="A12" s="48" t="str">
         <f t="shared" si="0"/>
         <v>'tocs'</v>
       </c>
-      <c r="B12" s="51" t="str">
+      <c r="B12" s="49" t="str">
         <f t="shared" si="1"/>
         <v>'tocs':str(tocs)</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="49" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="51" t="s">
+      <c r="K16" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L16" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="51" t="s">
+      <c r="M16" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="N16" s="51" t="s">
+      <c r="N16" s="49" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="49" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="49" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="49" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="49" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="49" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="49" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="49" t="s">
         <v>106</v>
       </c>
     </row>
